--- a/ArticleCrawler/guidelines/20200112_논문 대상 저널_SE.xlsx
+++ b/ArticleCrawler/guidelines/20200112_논문 대상 저널_SE.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeseungeun/Desktop/논문/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\oeju\OEJU\ArticleCrawler\guidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C55B6A3-ED59-3449-9B26-FDF5077C061E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="1560" windowWidth="24500" windowHeight="14700" xr2:uid="{F73B5211-5350-DA4D-8C10-D81A6ADBEC2C}"/>
+    <workbookView xWindow="7380" yWindow="1560" windowWidth="24495" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -185,10 +184,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.nature.com/sdata/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.earth-system-science-data.net/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -223,13 +218,17 @@
   <si>
     <t>실제 홈페이지 전체 저널수 
 (~2019)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nature.com/sdata/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="12"/>
@@ -799,25 +798,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8CD14A-3C56-9E48-9486-DBF17B156160}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="44.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38">
+    <row r="1" spans="1:10" ht="51.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -840,10 +839,10 @@
         <v>12</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>29</v>
@@ -889,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
         <v>2014</v>
@@ -907,7 +906,7 @@
         <v>1176</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -918,7 +917,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
         <v>2009</v>
@@ -936,7 +935,7 @@
         <v>452</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -947,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>2016</v>
@@ -962,7 +961,7 @@
         <v>110</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>26</v>
@@ -976,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1">
         <v>2014</v>
@@ -997,7 +996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19" thickBot="1">
+    <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>2012</v>
@@ -1070,13 +1069,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{547C17F7-869A-6E44-8D8A-67A16734E57B}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{37CBBF11-C29E-DB40-A198-9D7D7B3224C1}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{947AB2CE-A79D-E44A-951C-D81C61BDA5AD}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{777C2FF7-EFBE-6142-9D9F-042A9FD03E1E}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{CDF83DCB-9335-FF41-8A68-87675B8E4FAD}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{EE95E6AD-AE5A-5F48-81C9-8C305610AEAF}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{35874D3E-BC9D-2A4F-9ECA-370716482DF7}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
